--- a/BKI1100_R30_资源文件/ScalingQC.xlsx
+++ b/BKI1100_R30_资源文件/ScalingQC.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\工作\中英文资源\BKI1100_R30\ScalingQC\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F52E66F-FC8D-4072-B057-6C4C3211D610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="frmQC" sheetId="1" r:id="rId1"/>
     <sheet name="frmScaling" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="106">
   <si>
     <t>代码</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -335,13 +329,26 @@
   </si>
   <si>
     <t>Two Point</t>
+  </si>
+  <si>
+    <t>keywordText.SelectRules</t>
+  </si>
+  <si>
+    <t>请选择质控规则</t>
+  </si>
+  <si>
+    <t>keywordText.SelectRules</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please select quality control rules</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -454,7 +461,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -489,7 +496,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -666,21 +673,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="28.375" customWidth="1"/>
     <col min="2" max="2" width="33.625" customWidth="1"/>
@@ -689,7 +696,7 @@
     <col min="5" max="5" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -702,7 +709,7 @@
       </c>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -719,7 +726,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -736,7 +743,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -753,7 +760,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -770,7 +777,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -787,7 +794,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -804,7 +811,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -821,7 +828,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -838,7 +845,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -855,7 +862,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -872,7 +879,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -889,7 +896,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -906,7 +913,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -923,7 +930,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -940,7 +947,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -957,7 +964,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -974,7 +981,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -991,7 +998,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -1008,7 +1015,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -1025,7 +1032,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -1042,7 +1049,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1059,7 +1066,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -1076,7 +1083,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -1093,8 +1100,25 @@
         <v>71</v>
       </c>
     </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" t="s">
+        <v>105</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D24">
+  <sortState ref="A2:D24">
     <sortCondition ref="A2:A24"/>
   </sortState>
   <mergeCells count="2">
@@ -1108,14 +1132,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37484AC5-CB3A-455D-BC13-17599A11629C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="33.25" customWidth="1"/>
     <col min="2" max="2" width="31.75" customWidth="1"/>
@@ -1124,7 +1148,7 @@
     <col min="5" max="5" width="32.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1137,7 +1161,7 @@
       </c>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>88</v>
       </c>
@@ -1154,7 +1178,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>84</v>
       </c>
@@ -1171,7 +1195,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>86</v>
       </c>
@@ -1188,7 +1212,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -1205,7 +1229,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>82</v>
       </c>
@@ -1222,7 +1246,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -1239,7 +1263,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>90</v>
       </c>
@@ -1256,7 +1280,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -1273,7 +1297,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -1290,7 +1314,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>74</v>
       </c>
@@ -1308,7 +1332,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D11">
+  <sortState ref="A2:D11">
     <sortCondition ref="A2:A11"/>
   </sortState>
   <mergeCells count="2">
@@ -1317,5 +1341,6 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>